--- a/pmi/commmodity_short.xlsx
+++ b/pmi/commmodity_short.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,24 +460,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Electronic Components</t>
+          <t xml:space="preserve"> Labor — Temporary</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Electrical Components</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>37</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
